--- a/codes/TEMOA/Temoa/data_files/PuertoRico/PR_FR_test_run_model/test_run_pyam.xlsx
+++ b/codes/TEMOA/Temoa/data_files/PuertoRico/PR_FR_test_run_model/test_run_pyam.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="52">
   <si>
     <t>Model</t>
   </si>
@@ -68,12 +68,18 @@
     <t>Activity|electric</t>
   </si>
   <si>
+    <t>Activity|electric|E_BATT</t>
+  </si>
+  <si>
+    <t>Activity|electric|E_BIO</t>
+  </si>
+  <si>
+    <t>Activity|electric|E_HYDRO</t>
+  </si>
+  <si>
     <t>Activity|electric|E_NGCC</t>
   </si>
   <si>
-    <t>Activity|electric|E_NUCLEAR</t>
-  </si>
-  <si>
     <t>Activity|electric|E_SOLPV</t>
   </si>
   <si>
@@ -83,12 +89,12 @@
     <t>Activity|supply</t>
   </si>
   <si>
+    <t>Activity|supply|S_IMPBIO</t>
+  </si>
+  <si>
     <t>Activity|supply|S_IMPNG</t>
   </si>
   <si>
-    <t>Activity|supply|S_IMPURN</t>
-  </si>
-  <si>
     <t>Activity|transport</t>
   </si>
   <si>
@@ -113,12 +119,18 @@
     <t>Capacity|electric</t>
   </si>
   <si>
+    <t>Capacity|electric|E_BATT</t>
+  </si>
+  <si>
+    <t>Capacity|electric|E_BIO</t>
+  </si>
+  <si>
+    <t>Capacity|electric|E_HYDRO</t>
+  </si>
+  <si>
     <t>Capacity|electric|E_NGCC</t>
   </si>
   <si>
-    <t>Capacity|electric|E_NUCLEAR</t>
-  </si>
-  <si>
     <t>Capacity|electric|E_SOLPV</t>
   </si>
   <si>
@@ -128,10 +140,10 @@
     <t>Capacity|supply</t>
   </si>
   <si>
+    <t>Capacity|supply|S_IMPBIO</t>
+  </si>
+  <si>
     <t>Capacity|supply|S_IMPNG</t>
-  </si>
-  <si>
-    <t>Capacity|supply|S_IMPURN</t>
   </si>
   <si>
     <t>Capacity|transport</t>
@@ -516,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +537,7 @@
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
     <col min="5" max="5" width="6.7109375" customWidth="1"/>
     <col min="6" max="6" width="6.7109375" customWidth="1"/>
     <col min="7" max="7" width="6.7109375" customWidth="1"/>
@@ -584,25 +596,25 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F2">
-        <v>69.24912100402599</v>
+        <v>68.96207609884995</v>
       </c>
       <c r="G2">
-        <v>69.21705958342601</v>
+        <v>70.16553133144996</v>
       </c>
       <c r="H2">
-        <v>67.68542567682599</v>
+        <v>69.68107220024996</v>
       </c>
       <c r="I2">
-        <v>67.17571417302599</v>
+        <v>69.53248976325</v>
       </c>
       <c r="J2">
-        <v>66.46362410322601</v>
+        <v>69.39373486364997</v>
       </c>
       <c r="K2">
-        <v>65.41925690662599</v>
+        <v>69.00301098144999</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -619,25 +631,25 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F3">
-        <v>69.24912100402599</v>
+        <v>68.96207609884995</v>
       </c>
       <c r="G3">
-        <v>69.21705958342601</v>
+        <v>70.16553133144996</v>
       </c>
       <c r="H3">
-        <v>67.68542567682599</v>
+        <v>69.68107220024996</v>
       </c>
       <c r="I3">
-        <v>67.17571417302599</v>
+        <v>69.53248976325</v>
       </c>
       <c r="J3">
-        <v>66.46362410322601</v>
+        <v>69.39373486364997</v>
       </c>
       <c r="K3">
-        <v>65.41925690662599</v>
+        <v>69.00301098144999</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -654,25 +666,25 @@
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F4">
-        <v>75.28747472352801</v>
+        <v>74.97540050701699</v>
       </c>
       <c r="G4">
-        <v>75.25261779885801</v>
+        <v>76.28379405918152</v>
       </c>
       <c r="H4">
-        <v>73.58742893315801</v>
+        <v>75.75709048942299</v>
       </c>
       <c r="I4">
-        <v>73.03327175952801</v>
+        <v>75.59555297994348</v>
       </c>
       <c r="J4">
-        <v>72.25908922531801</v>
+        <v>76.485779069673</v>
       </c>
       <c r="K4">
-        <v>71.123655519628</v>
+        <v>75.90807736944099</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -689,25 +701,13 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5">
-        <v>13.1324834455</v>
-      </c>
-      <c r="G5">
-        <v>13.09762652083</v>
-      </c>
-      <c r="H5">
-        <v>11.43243765513</v>
-      </c>
-      <c r="I5">
-        <v>10.8782804815</v>
+        <v>50</v>
       </c>
       <c r="J5">
-        <v>10.10409794729</v>
+        <v>0.8849180465549999</v>
       </c>
       <c r="K5">
-        <v>8.968664241599999</v>
+        <v>0.7549471119559999</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -724,25 +724,13 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6">
-        <v>61.29317660720001</v>
-      </c>
-      <c r="G6">
-        <v>61.29317660720001</v>
-      </c>
-      <c r="H6">
-        <v>61.29317660720001</v>
-      </c>
-      <c r="I6">
-        <v>61.29317660720001</v>
+        <v>50</v>
       </c>
       <c r="J6">
-        <v>61.29317660720001</v>
+        <v>0.9436309270000001</v>
       </c>
       <c r="K6">
-        <v>61.29317660720001</v>
+        <v>14.875687725</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -759,25 +747,25 @@
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F7">
-        <v>0.377770976644</v>
+        <v>0.2834299236770002</v>
       </c>
       <c r="G7">
-        <v>0.377770976644</v>
+        <v>1.5908683537815</v>
       </c>
       <c r="H7">
-        <v>0.377770976644</v>
+        <v>1.588936006393</v>
       </c>
       <c r="I7">
-        <v>0.377770976644</v>
+        <v>1.5242611704935</v>
       </c>
       <c r="J7">
-        <v>0.377770976644</v>
+        <v>1.544434762697</v>
       </c>
       <c r="K7">
-        <v>0.377770976644</v>
+        <v>1.582754052447</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -794,25 +782,22 @@
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F8">
-        <v>0.4840436941840002</v>
+        <v>73.44745772450997</v>
       </c>
       <c r="G8">
-        <v>0.4840436941840002</v>
+        <v>44.88736472800001</v>
       </c>
       <c r="H8">
-        <v>0.4840436941840002</v>
+        <v>36.433327098</v>
       </c>
       <c r="I8">
-        <v>0.4840436941840002</v>
+        <v>27.95520504</v>
       </c>
       <c r="J8">
-        <v>0.4840436941840002</v>
-      </c>
-      <c r="K8">
-        <v>0.4840436941840002</v>
+        <v>14.109559929</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -829,25 +814,25 @@
         <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F9">
-        <v>209.1366480903799</v>
+        <v>0.467530514926</v>
       </c>
       <c r="G9">
-        <v>209.0600397314799</v>
+        <v>5.432909246226</v>
       </c>
       <c r="H9">
-        <v>205.4002837655999</v>
+        <v>5.266532738926</v>
       </c>
       <c r="I9">
-        <v>204.1823561417799</v>
+        <v>5.329224018066</v>
       </c>
       <c r="J9">
-        <v>202.48085593588</v>
+        <v>17.915345624926</v>
       </c>
       <c r="K9">
-        <v>199.9853974322</v>
+        <v>20.207334731926</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -864,25 +849,25 @@
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F10">
-        <v>28.86260073778</v>
+        <v>0.7769823439039997</v>
       </c>
       <c r="G10">
-        <v>28.78599237888</v>
+        <v>24.37265173117401</v>
       </c>
       <c r="H10">
-        <v>25.126236413</v>
+        <v>32.46829464610399</v>
       </c>
       <c r="I10">
-        <v>23.90830878917999</v>
+        <v>40.78686275138399</v>
       </c>
       <c r="J10">
-        <v>22.20680858328</v>
+        <v>41.08788977949499</v>
       </c>
       <c r="K10">
-        <v>19.7113500796</v>
+        <v>38.48735374811199</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -899,25 +884,25 @@
         <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F11">
-        <v>180.2740473526</v>
+        <v>125.9209782608</v>
       </c>
       <c r="G11">
-        <v>180.2740473526</v>
+        <v>73.55864866</v>
       </c>
       <c r="H11">
-        <v>180.2740473526</v>
+        <v>59.64214738</v>
       </c>
       <c r="I11">
-        <v>180.2740473526</v>
+        <v>45.72564604</v>
       </c>
       <c r="J11">
-        <v>180.2740473526</v>
+        <v>26.592589568</v>
       </c>
       <c r="K11">
-        <v>180.2740473526</v>
+        <v>58.79718497</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -934,25 +919,13 @@
         <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12">
-        <v>287.720125090744</v>
-      </c>
-      <c r="G12">
-        <v>287.5869153963441</v>
-      </c>
-      <c r="H12">
-        <v>281.2231951944441</v>
-      </c>
-      <c r="I12">
-        <v>279.105418472364</v>
+        <v>50</v>
       </c>
       <c r="J12">
-        <v>276.146785891356</v>
+        <v>3.729766512</v>
       </c>
       <c r="K12">
-        <v>271.807589994144</v>
+        <v>58.79718497</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -969,25 +942,22 @@
         <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F13">
-        <v>69.24912111434399</v>
+        <v>125.9209782608</v>
       </c>
       <c r="G13">
-        <v>69.21705990654402</v>
+        <v>73.55864866</v>
       </c>
       <c r="H13">
-        <v>67.68542562374402</v>
+        <v>59.64214738</v>
       </c>
       <c r="I13">
-        <v>67.17571419094401</v>
+        <v>45.72564604</v>
       </c>
       <c r="J13">
-        <v>66.46362398959602</v>
-      </c>
-      <c r="K13">
-        <v>65.41925684674401</v>
+        <v>22.862823056</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1004,25 +974,25 @@
         <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F14">
-        <v>74.461420516228</v>
+        <v>286.5274965052</v>
       </c>
       <c r="G14">
-        <v>74.42694601922801</v>
+        <v>291.5276796534</v>
       </c>
       <c r="H14">
-        <v>72.780027384828</v>
+        <v>289.5148197648</v>
       </c>
       <c r="I14">
-        <v>72.231950913028</v>
+        <v>288.8974839218</v>
       </c>
       <c r="J14">
-        <v>71.46626241062799</v>
+        <v>288.3209763892</v>
       </c>
       <c r="K14">
-        <v>70.343286738028</v>
+        <v>286.6975751657999</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1039,25 +1009,25 @@
         <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F15">
-        <v>74.76046234582797</v>
+        <v>68.96207643479998</v>
       </c>
       <c r="G15">
-        <v>74.72584975502799</v>
+        <v>70.16553186520001</v>
       </c>
       <c r="H15">
-        <v>73.07231677892801</v>
+        <v>69.68107289619998</v>
       </c>
       <c r="I15">
-        <v>72.52203886304798</v>
+        <v>69.5324902774</v>
       </c>
       <c r="J15">
-        <v>71.75327527778799</v>
+        <v>69.3937349998</v>
       </c>
       <c r="K15">
-        <v>70.625789590628</v>
+        <v>69.0030116776</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1074,25 +1044,25 @@
         <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F16">
-        <v>69.24912111434399</v>
+        <v>74.15277033920003</v>
       </c>
       <c r="G16">
-        <v>69.21705971554402</v>
+        <v>75.44680806640002</v>
       </c>
       <c r="H16">
-        <v>67.68542540694403</v>
+        <v>74.92588331439998</v>
       </c>
       <c r="I16">
-        <v>67.175714505344</v>
+        <v>74.766118824</v>
       </c>
       <c r="J16">
-        <v>66.46362421334402</v>
+        <v>74.61691957340001</v>
       </c>
       <c r="K16">
-        <v>65.419256818744</v>
+        <v>74.19678643379999</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1109,25 +1079,25 @@
         <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F17">
-        <v>69.249121</v>
+        <v>74.45057329640001</v>
       </c>
       <c r="G17">
-        <v>134.46618</v>
+        <v>75.74980785659997</v>
       </c>
       <c r="H17">
-        <v>198.15161</v>
+        <v>75.22679065800003</v>
       </c>
       <c r="I17">
-        <v>261.32732</v>
+        <v>75.06638454300001</v>
       </c>
       <c r="J17">
-        <v>261.32732</v>
+        <v>74.91658681620002</v>
       </c>
       <c r="K17">
-        <v>261.32732</v>
+        <v>74.49476537679995</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1144,25 +1114,25 @@
         <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F18">
-        <v>69.249121</v>
+        <v>68.96207643479998</v>
       </c>
       <c r="G18">
-        <v>134.46618</v>
+        <v>70.16553186520001</v>
       </c>
       <c r="H18">
-        <v>198.15161</v>
+        <v>69.68107289619998</v>
       </c>
       <c r="I18">
-        <v>261.32732</v>
+        <v>69.5324902774</v>
       </c>
       <c r="J18">
-        <v>261.32732</v>
+        <v>69.3937349998</v>
       </c>
       <c r="K18">
-        <v>261.32732</v>
+        <v>69.0030116776</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1179,25 +1149,25 @@
         <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F19">
-        <v>2.7948908</v>
+        <v>69.393736</v>
       </c>
       <c r="G19">
-        <v>2.7948908</v>
+        <v>135.55927</v>
       </c>
       <c r="H19">
-        <v>2.7948908</v>
+        <v>201.09176</v>
       </c>
       <c r="I19">
-        <v>2.7948908</v>
+        <v>201.09176</v>
       </c>
       <c r="J19">
-        <v>2.7948908</v>
+        <v>266.09477</v>
       </c>
       <c r="K19">
-        <v>2.7948908</v>
+        <v>266.09477</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1214,25 +1184,25 @@
         <v>32</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F20">
-        <v>0.51</v>
+        <v>69.393736</v>
       </c>
       <c r="G20">
-        <v>0.51</v>
+        <v>135.55927</v>
       </c>
       <c r="H20">
-        <v>0.51</v>
+        <v>201.09176</v>
       </c>
       <c r="I20">
-        <v>0.51</v>
+        <v>201.09176</v>
       </c>
       <c r="J20">
-        <v>0.51</v>
+        <v>266.09477</v>
       </c>
       <c r="K20">
-        <v>0.51</v>
+        <v>266.09477</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1249,25 +1219,25 @@
         <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F21">
-        <v>2.0673908</v>
+        <v>2.957869919</v>
       </c>
       <c r="G21">
-        <v>2.0673908</v>
+        <v>7.4478045</v>
       </c>
       <c r="H21">
-        <v>2.0673908</v>
+        <v>8.846573899999999</v>
       </c>
       <c r="I21">
-        <v>2.0673908</v>
+        <v>10.3192153</v>
       </c>
       <c r="J21">
-        <v>2.0673908</v>
+        <v>16.31722591</v>
       </c>
       <c r="K21">
-        <v>2.0673908</v>
+        <v>18.96906566</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1284,25 +1254,13 @@
         <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22">
-        <v>0.1165</v>
-      </c>
-      <c r="G22">
-        <v>0.1165</v>
-      </c>
-      <c r="H22">
-        <v>0.1165</v>
-      </c>
-      <c r="I22">
-        <v>0.1165</v>
+        <v>50</v>
       </c>
       <c r="J22">
-        <v>0.1165</v>
+        <v>0.14708966</v>
       </c>
       <c r="K22">
-        <v>0.1165</v>
+        <v>0.14708966</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1319,25 +1277,13 @@
         <v>35</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23">
-        <v>0.101</v>
-      </c>
-      <c r="G23">
-        <v>0.101</v>
-      </c>
-      <c r="H23">
-        <v>0.101</v>
-      </c>
-      <c r="I23">
-        <v>0.101</v>
+        <v>50</v>
       </c>
       <c r="J23">
-        <v>0.101</v>
+        <v>0.08687325</v>
       </c>
       <c r="K23">
-        <v>0.101</v>
+        <v>2.738713</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1354,25 +1300,25 @@
         <v>36</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F24">
-        <v>212.030749</v>
+        <v>0.018339519</v>
       </c>
       <c r="G24">
-        <v>422.984889</v>
+        <v>0.103</v>
       </c>
       <c r="H24">
-        <v>630.279274</v>
+        <v>0.103</v>
       </c>
       <c r="I24">
-        <v>836.21961</v>
+        <v>0.103</v>
       </c>
       <c r="J24">
-        <v>1040.59456</v>
+        <v>0.103</v>
       </c>
       <c r="K24">
-        <v>1242.47407</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1389,25 +1335,25 @@
         <v>37</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F25">
-        <v>31.756699</v>
+        <v>2.7220304</v>
       </c>
       <c r="G25">
-        <v>62.436789</v>
+        <v>2.7220304</v>
       </c>
       <c r="H25">
-        <v>89.45712399999999</v>
+        <v>2.7220304</v>
       </c>
       <c r="I25">
-        <v>115.12341</v>
+        <v>2.7220304</v>
       </c>
       <c r="J25">
-        <v>139.22432</v>
+        <v>2.7220304</v>
       </c>
       <c r="K25">
-        <v>160.82977</v>
+        <v>2.7220304</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1424,25 +1370,25 @@
         <v>38</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F26">
-        <v>180.27405</v>
+        <v>0.1165</v>
       </c>
       <c r="G26">
-        <v>360.5481</v>
+        <v>1.4239814</v>
       </c>
       <c r="H26">
-        <v>540.82215</v>
+        <v>1.4239814</v>
       </c>
       <c r="I26">
-        <v>721.0962</v>
+        <v>1.4239814</v>
       </c>
       <c r="J26">
-        <v>901.37024</v>
+        <v>5.9708282</v>
       </c>
       <c r="K26">
-        <v>1081.6443</v>
+        <v>5.9708282</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1459,25 +1405,25 @@
         <v>39</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F27">
-        <v>287.720124</v>
+        <v>0.101</v>
       </c>
       <c r="G27">
-        <v>287.720124</v>
+        <v>3.1987927</v>
       </c>
       <c r="H27">
-        <v>287.720124</v>
+        <v>4.5975621</v>
       </c>
       <c r="I27">
-        <v>287.720124</v>
+        <v>6.0702035</v>
       </c>
       <c r="J27">
-        <v>287.720124</v>
+        <v>7.2874044</v>
       </c>
       <c r="K27">
-        <v>287.720124</v>
+        <v>7.2874044</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1494,25 +1440,25 @@
         <v>40</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F28">
-        <v>69.249121</v>
+        <v>235.38959</v>
       </c>
       <c r="G28">
-        <v>69.249121</v>
+        <v>611.48395</v>
       </c>
       <c r="H28">
-        <v>69.249121</v>
+        <v>844.76279</v>
       </c>
       <c r="I28">
-        <v>69.249121</v>
+        <v>1219.34453</v>
       </c>
       <c r="J28">
-        <v>69.249121</v>
+        <v>1631.218</v>
       </c>
       <c r="K28">
-        <v>69.249121</v>
+        <v>1921.42419</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1529,25 +1475,25 @@
         <v>41</v>
       </c>
       <c r="E29" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F29">
-        <v>74.46142</v>
+        <v>105.73342</v>
       </c>
       <c r="G29">
-        <v>74.46142</v>
+        <v>353.17161</v>
       </c>
       <c r="H29">
-        <v>74.46142</v>
+        <v>458.95187</v>
       </c>
       <c r="I29">
-        <v>74.46142</v>
+        <v>706.3900599999999</v>
       </c>
       <c r="J29">
-        <v>74.46142</v>
+        <v>996.59621</v>
       </c>
       <c r="K29">
-        <v>74.46142</v>
+        <v>1286.8024</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1564,25 +1510,25 @@
         <v>42</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F30">
-        <v>74.760462</v>
+        <v>129.65617</v>
       </c>
       <c r="G30">
-        <v>74.760462</v>
+        <v>258.31234</v>
       </c>
       <c r="H30">
-        <v>74.760462</v>
+        <v>385.81092</v>
       </c>
       <c r="I30">
-        <v>74.760462</v>
+        <v>512.95447</v>
       </c>
       <c r="J30">
-        <v>74.760462</v>
+        <v>634.62179</v>
       </c>
       <c r="K30">
-        <v>74.760462</v>
+        <v>634.62179</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1599,25 +1545,25 @@
         <v>43</v>
       </c>
       <c r="E31" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F31">
-        <v>69.249121</v>
+        <v>11.76</v>
       </c>
       <c r="G31">
-        <v>69.249121</v>
+        <v>11.76</v>
       </c>
       <c r="H31">
-        <v>69.249121</v>
+        <v>11.76</v>
       </c>
       <c r="I31">
-        <v>69.249121</v>
+        <v>11.76</v>
       </c>
       <c r="J31">
-        <v>69.249121</v>
+        <v>11.76</v>
       </c>
       <c r="K31">
-        <v>69.249121</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1634,25 +1580,25 @@
         <v>44</v>
       </c>
       <c r="E32" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F32">
-        <v>1451.788817110333</v>
+        <v>2.8</v>
       </c>
       <c r="G32">
-        <v>1447.935416657664</v>
+        <v>2.8</v>
       </c>
       <c r="H32">
-        <v>1263.8496915739</v>
+        <v>2.8</v>
       </c>
       <c r="I32">
-        <v>1202.587932095754</v>
+        <v>2.8</v>
       </c>
       <c r="J32">
-        <v>1117.002471738984</v>
+        <v>2.8</v>
       </c>
       <c r="K32">
-        <v>839.2284763199699</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1669,25 +1615,159 @@
         <v>45</v>
       </c>
       <c r="E33" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33">
+        <v>3.08</v>
+      </c>
+      <c r="G33">
+        <v>3.08</v>
+      </c>
+      <c r="H33">
+        <v>3.08</v>
+      </c>
+      <c r="I33">
+        <v>3.08</v>
+      </c>
+      <c r="J33">
+        <v>3.08</v>
+      </c>
+      <c r="K33">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
         <v>46</v>
       </c>
-      <c r="F33">
-        <v>1451.788817110333</v>
-      </c>
-      <c r="G33">
-        <v>1447.935416657664</v>
-      </c>
-      <c r="H33">
-        <v>1263.8496915739</v>
-      </c>
-      <c r="I33">
-        <v>1202.587932095754</v>
-      </c>
-      <c r="J33">
-        <v>1117.002471738984</v>
-      </c>
-      <c r="K33">
-        <v>839.2284763199699</v>
+      <c r="E34" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34">
+        <v>3.08</v>
+      </c>
+      <c r="G34">
+        <v>3.08</v>
+      </c>
+      <c r="H34">
+        <v>3.08</v>
+      </c>
+      <c r="I34">
+        <v>3.08</v>
+      </c>
+      <c r="J34">
+        <v>3.08</v>
+      </c>
+      <c r="K34">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35">
+        <v>2.8</v>
+      </c>
+      <c r="G35">
+        <v>2.8</v>
+      </c>
+      <c r="H35">
+        <v>2.8</v>
+      </c>
+      <c r="I35">
+        <v>2.8</v>
+      </c>
+      <c r="J35">
+        <v>2.8</v>
+      </c>
+      <c r="K35">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36">
+        <v>6333.825206518239</v>
+      </c>
+      <c r="G36">
+        <v>3700.000027598</v>
+      </c>
+      <c r="H36">
+        <v>3000.000013213999</v>
+      </c>
+      <c r="I36">
+        <v>2299.999995812</v>
+      </c>
+      <c r="J36">
+        <v>1149.9999997168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37">
+        <v>6333.825206518239</v>
+      </c>
+      <c r="G37">
+        <v>3700.000027598</v>
+      </c>
+      <c r="H37">
+        <v>3000.000013213999</v>
+      </c>
+      <c r="I37">
+        <v>2299.999995812</v>
+      </c>
+      <c r="J37">
+        <v>1149.9999997168</v>
       </c>
     </row>
   </sheetData>
@@ -1716,7 +1796,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3">
